--- a/DB/top level data.xlsx
+++ b/DB/top level data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\learn\Programming\WorkSpace\Apparel-Merchandisers-Helper\Apparel Merchandisers Helper\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyData\learn\Programming\WorkSpace\Apparel-Merchandisers-Helper\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A6923-0B99-4CF0-814D-8F6D3AF69390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DE9E3-F8F3-4CC7-9FC5-09745F2C2A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>866S</t>
   </si>
@@ -120,15 +120,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -216,11 +228,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,50 +406,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,200 +854,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:T9"/>
+      <selection activeCell="L1" sqref="L1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="30" width="5.5546875" customWidth="1"/>
+    <col min="2" max="3" width="2.88671875" customWidth="1"/>
+    <col min="4" max="28" width="5.5546875" customWidth="1"/>
+    <col min="29" max="29" width="3.5546875" customWidth="1"/>
+    <col min="30" max="34" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="K1">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="Q1">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="R1">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="S1">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="T1">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="U1">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="V1">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="W1">
         <v>19</v>
       </c>
-      <c r="V1">
+      <c r="X1">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="Y1">
         <v>21</v>
       </c>
-      <c r="X1">
+      <c r="Z1">
         <v>22</v>
       </c>
-      <c r="Y1">
+      <c r="AC1">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="18"/>
+      <c r="U2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -770,152 +1080,172 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="10"/>
+      <c r="W6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="s">
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="19"/>
+    </row>
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="19"/>
+    </row>
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="19"/>
+    </row>
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="19"/>
+    </row>
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -936,12 +1266,16 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -962,12 +1296,16 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -988,12 +1326,16 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1014,12 +1356,16 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="7"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1040,12 +1386,16 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1066,56 +1416,716 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="9"/>
+    </row>
+    <row r="17" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:29" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="41"/>
+    </row>
+    <row r="20" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="47"/>
+    </row>
+    <row r="21" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="47"/>
+    </row>
+    <row r="22" spans="2:29" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="27"/>
+    </row>
+    <row r="23" spans="2:29" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="28"/>
+    </row>
+    <row r="24" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="28"/>
+    </row>
+    <row r="25" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="29"/>
+    </row>
+    <row r="26" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="35"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="29"/>
+    </row>
+    <row r="27" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="35"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="29"/>
+    </row>
+    <row r="28" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="29"/>
+    </row>
+    <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="35"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="29"/>
+    </row>
+    <row r="30" spans="2:29" ht="17.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="30"/>
+    </row>
+    <row r="31" spans="2:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="47"/>
+    </row>
+    <row r="32" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="47"/>
+    </row>
+    <row r="33" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="47"/>
+    </row>
+    <row r="34" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="6"/>
+    </row>
+    <row r="35" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="6"/>
+    </row>
+    <row r="36" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="S7:T9"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V9"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X9"/>
-    <mergeCell ref="S6:T6"/>
+  <mergeCells count="103">
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y26:AA28"/>
+    <mergeCell ref="G24:AA24"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:H28"/>
+    <mergeCell ref="I26:J28"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V28"/>
+    <mergeCell ref="W26:X28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B19:G21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="S3:T4"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
@@ -1123,43 +2133,16 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:T4"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U7:V9"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X9"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="Y7:AC9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
